--- a/planning/submission_log.xlsx
+++ b/planning/submission_log.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27525"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27528"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="186" documentId="11_DF5355BF84DCCE63EC1506588731F45B1AF65D9D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{19597FC3-0C9F-49B6-8E6D-2A1CDF0D3473}"/>
+  <xr:revisionPtr revIDLastSave="226" documentId="11_DF5355BF84DCCE63EC1506588731F45B1AF65D9D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C6EC8307-F2FB-4FAF-8AF9-5232769B1161}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="38">
   <si>
     <t>Date</t>
   </si>
@@ -208,6 +208,38 @@
   </si>
   <si>
     <t>all aggregations, 523 features</t>
+  </si>
+  <si>
+    <t>Version 36</t>
+  </si>
+  <si>
+    <t>"boosting_type": "gbdt",
+    "objective": "binary",
+    "metric": "auc",
+    "max_depth": 8,
+    "learning_rate": 0.03,
+    "n_estimators": 2500,
+    'colsample_bytree': 0.5,
+    "colsample_bynode": 0.5,
+     'min_split_gain': 0.024766,
+    'subsample': 1,
+    "verbose": -1,
+    "random_state": 42,
+     'reg_alpha': 1,
+    'reg_lambda': 1,
+     'silent':-1,
+    "device": "gpu",
+    "is_unbalance":True, callbacks=[lgb.log_evaluation(100), lgb.early_stopping(100)]
+                           )</t>
+  </si>
+  <si>
+    <t>top 125 features by SelectKBest + using BALANCE_COLUMNS="True"</t>
+  </si>
+  <si>
+    <t>Version 37</t>
+  </si>
+  <si>
+    <t>all features + using BALANCE_COLUMNS="True"</t>
   </si>
 </sst>
 </file>
@@ -338,7 +370,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -347,12 +379,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
@@ -376,6 +402,17 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normální" xfId="0" builtinId="0"/>
@@ -710,10 +747,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="D6:P13"/>
+  <dimension ref="D6:P15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="G9" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14:P15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -764,10 +801,10 @@
       <c r="N6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="O6" s="7" t="s">
+      <c r="O6" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="P6" s="8"/>
+      <c r="P6" s="22"/>
     </row>
     <row r="7" spans="4:16" ht="28.5" customHeight="1">
       <c r="D7" s="3">
@@ -801,10 +838,10 @@
       <c r="N7" s="4">
         <v>0.56699999999999995</v>
       </c>
-      <c r="O7" s="17">
+      <c r="O7" s="15">
         <v>1064</v>
       </c>
-      <c r="P7" s="18">
+      <c r="P7" s="16">
         <f>O7/3600</f>
         <v>0.29555555555555557</v>
       </c>
@@ -841,222 +878,306 @@
       <c r="N8" s="4">
         <v>0.56599999999999995</v>
       </c>
-      <c r="O8" s="17">
+      <c r="O8" s="15">
         <v>15035</v>
       </c>
-      <c r="P8" s="17">
+      <c r="P8" s="15">
         <f>O8/3600</f>
         <v>4.1763888888888889</v>
       </c>
     </row>
     <row r="9" spans="4:16" ht="22.5" customHeight="1">
-      <c r="D9" s="9">
+      <c r="D9" s="7">
         <v>45371</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="E9" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="11" t="s">
+      <c r="F9" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G9" s="10" t="s">
+      <c r="G9" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="H9" s="12" t="s">
+      <c r="H9" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="I9" s="10">
+      <c r="I9" s="8">
         <v>0</v>
       </c>
-      <c r="J9" s="10">
+      <c r="J9" s="8">
         <v>1</v>
       </c>
-      <c r="K9" s="10" t="s">
+      <c r="K9" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="L9" s="10">
+      <c r="L9" s="8">
         <v>0.82555400000000001</v>
       </c>
-      <c r="M9" s="10">
+      <c r="M9" s="8">
         <v>0.62954500000000002</v>
       </c>
-      <c r="N9" s="10">
+      <c r="N9" s="8">
         <v>0.54300000000000004</v>
       </c>
-      <c r="O9" s="15">
+      <c r="O9" s="13">
         <v>15327</v>
       </c>
-      <c r="P9" s="15">
+      <c r="P9" s="13">
         <f>O9/3600</f>
         <v>4.2575000000000003</v>
       </c>
     </row>
     <row r="10" spans="4:16" ht="26.25" customHeight="1">
-      <c r="D10" s="9">
+      <c r="D10" s="7">
         <v>45375</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="E10" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="F10" s="10" t="s">
+      <c r="F10" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="G10" s="10" t="s">
+      <c r="G10" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="H10" s="12" t="s">
+      <c r="H10" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="I10" s="10">
+      <c r="I10" s="8">
         <v>0</v>
       </c>
-      <c r="J10" s="10">
+      <c r="J10" s="8">
         <v>1</v>
       </c>
-      <c r="K10" s="10" t="s">
+      <c r="K10" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="L10" s="10">
+      <c r="L10" s="8">
         <v>0.83070200000000005</v>
       </c>
-      <c r="M10" s="10">
+      <c r="M10" s="8">
         <v>0.63882680000000003</v>
       </c>
-      <c r="N10" s="10">
+      <c r="N10" s="8">
         <v>0.54500000000000004</v>
       </c>
-      <c r="O10" s="10">
+      <c r="O10" s="8">
         <v>17232</v>
       </c>
-      <c r="P10" s="13">
+      <c r="P10" s="11">
         <f>O10/3600</f>
         <v>4.7866666666666671</v>
       </c>
     </row>
     <row r="11" spans="4:16" ht="23.25" customHeight="1">
-      <c r="D11" s="14">
+      <c r="D11" s="12">
         <v>45375</v>
       </c>
-      <c r="E11" s="15" t="s">
+      <c r="E11" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="F11" s="15" t="s">
+      <c r="F11" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="G11" s="15" t="s">
+      <c r="G11" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="H11" s="19" t="s">
+      <c r="H11" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="I11" s="15">
+      <c r="I11" s="13">
         <v>0</v>
       </c>
-      <c r="J11" s="15">
+      <c r="J11" s="13">
         <v>1</v>
       </c>
-      <c r="K11" s="15" t="s">
+      <c r="K11" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="L11" s="15">
+      <c r="L11" s="13">
         <v>0.82713599999999998</v>
       </c>
-      <c r="M11" s="15">
+      <c r="M11" s="13">
         <v>0.63240385550331402</v>
       </c>
-      <c r="N11" s="15">
+      <c r="N11" s="13">
         <v>0.53800000000000003</v>
       </c>
-      <c r="O11" s="15">
+      <c r="O11" s="13">
         <v>12313</v>
       </c>
-      <c r="P11" s="20">
+      <c r="P11" s="18">
         <f>O11/3600</f>
         <v>3.4202777777777778</v>
       </c>
     </row>
     <row r="12" spans="4:16" ht="21.75" customHeight="1">
-      <c r="D12" s="9">
+      <c r="D12" s="7">
         <v>45375</v>
       </c>
-      <c r="E12" s="10" t="s">
+      <c r="E12" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="F12" s="10" t="s">
+      <c r="F12" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="G12" s="10" t="s">
+      <c r="G12" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="H12" s="21" t="s">
+      <c r="H12" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="I12" s="10">
+      <c r="I12" s="8">
         <v>0</v>
       </c>
-      <c r="J12" s="10">
+      <c r="J12" s="8">
         <v>1</v>
       </c>
-      <c r="K12" s="10" t="s">
+      <c r="K12" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="L12" s="10">
+      <c r="L12" s="8">
         <v>0.83641200000000004</v>
       </c>
-      <c r="M12" s="10">
+      <c r="M12" s="8">
         <v>0.65188948000000002</v>
       </c>
-      <c r="N12" s="10">
+      <c r="N12" s="8">
         <v>0.56299999999999994</v>
       </c>
-      <c r="O12" s="10">
+      <c r="O12" s="8">
         <v>4992</v>
       </c>
-      <c r="P12" s="22">
+      <c r="P12" s="20">
         <f>O12/3600</f>
         <v>1.3866666666666667</v>
       </c>
     </row>
     <row r="13" spans="4:16" ht="24.75" customHeight="1">
-      <c r="D13" s="14">
+      <c r="D13" s="12">
         <v>45376</v>
       </c>
-      <c r="E13" s="15" t="s">
+      <c r="E13" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="F13" s="15" t="s">
+      <c r="F13" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="G13" s="15" t="s">
+      <c r="G13" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="H13" s="16" t="s">
+      <c r="H13" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="I13" s="15">
+      <c r="I13" s="13">
         <v>0</v>
       </c>
-      <c r="J13" s="15">
+      <c r="J13" s="13">
         <v>1</v>
       </c>
-      <c r="K13" s="15" t="s">
+      <c r="K13" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="L13" s="15">
+      <c r="L13" s="13">
         <v>0.83678699999999995</v>
       </c>
-      <c r="M13" s="15">
+      <c r="M13" s="13">
         <v>0.65342607109999995</v>
       </c>
-      <c r="N13" s="15">
+      <c r="N13" s="13">
         <v>0.56499999999999995</v>
       </c>
-      <c r="O13" s="15">
+      <c r="O13" s="13">
         <v>5848</v>
       </c>
-      <c r="P13" s="20">
+      <c r="P13" s="18">
         <f>O13/3600</f>
         <v>1.6244444444444444</v>
+      </c>
+    </row>
+    <row r="14" spans="4:16" ht="18.75" customHeight="1">
+      <c r="D14" s="23">
+        <v>45382</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G14" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="H14" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="I14" s="13">
+        <v>0</v>
+      </c>
+      <c r="J14" s="13">
+        <v>1</v>
+      </c>
+      <c r="K14" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="L14" s="25">
+        <v>0.82329399999999997</v>
+      </c>
+      <c r="M14" s="25">
+        <v>0.62413052999999996</v>
+      </c>
+      <c r="N14" s="25">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="O14" s="25">
+        <v>3577</v>
+      </c>
+      <c r="P14" s="25">
+        <f>O14/3600</f>
+        <v>0.99361111111111111</v>
+      </c>
+    </row>
+    <row r="15" spans="4:16" ht="25.5" customHeight="1">
+      <c r="D15" s="23">
+        <v>45382</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="G15" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="H15" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="I15" s="13">
+        <v>0</v>
+      </c>
+      <c r="J15" s="13">
+        <v>1</v>
+      </c>
+      <c r="K15" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="L15" s="25">
+        <v>0.84043100000000004</v>
+      </c>
+      <c r="M15" s="25">
+        <v>0.66084032589999997</v>
+      </c>
+      <c r="N15" s="25">
+        <v>0.51800000000000002</v>
+      </c>
+      <c r="O15" s="25">
+        <v>8445</v>
+      </c>
+      <c r="P15" s="25">
+        <f>O15/3600</f>
+        <v>2.3458333333333332</v>
       </c>
     </row>
   </sheetData>

--- a/planning/submission_log.xlsx
+++ b/planning/submission_log.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27528"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="226" documentId="11_DF5355BF84DCCE63EC1506588731F45B1AF65D9D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C6EC8307-F2FB-4FAF-8AF9-5232769B1161}"/>
+  <xr:revisionPtr revIDLastSave="265" documentId="11_DF5355BF84DCCE63EC1506588731F45B1AF65D9D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{11ED00F9-B1D9-421F-9D71-EAC55501E776}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="43">
   <si>
     <t>Date</t>
   </si>
@@ -240,6 +240,47 @@
   </si>
   <si>
     <t>all features + using BALANCE_COLUMNS="True"</t>
+  </si>
+  <si>
+    <t>Version 38</t>
+  </si>
+  <si>
+    <t>"boosting_type": "gbdt",
+    "objective": "binary",
+    "metric": "auc",
+    "max_depth": 5,
+    "learning_rate": 0.03,
+    "n_estimators": 1000,
+    "colsample_bytree": 0.5, 
+    "colsample_bynode": 0.5,
+    "verbose": -1,
+    "random_state": 42,
+    'reg_alpha': 1,
+    'reg_lambda': 1,
+    "device": "cpu",
+    "is_unbalance":True, callbacks=[lgb.log_evaluation(100), lgb.early_stopping(100)]</t>
+  </si>
+  <si>
+    <t>all features + using BALANCE_COLUMNS="fALSE"</t>
+  </si>
+  <si>
+    <t>Version 39</t>
+  </si>
+  <si>
+    <t>"boosting_type": "gbdt",
+    "objective": "binary",
+    "metric": "auc",
+    "max_depth": 5,
+    "learning_rate": 0.03,
+    "n_estimators": 1000,
+    "colsample_bytree": 0.5, 
+    "colsample_bynode": 0.5,
+    "verbose": -1,
+    "random_state": 42,
+    'reg_alpha': 1,
+    'reg_lambda': 1,
+    "device": "cpu",
+    "is_unbalance":False, callbacks=[lgb.log_evaluation(100), lgb.early_stopping(100)]</t>
   </si>
 </sst>
 </file>
@@ -408,11 +449,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normální" xfId="0" builtinId="0"/>
@@ -747,10 +788,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="D6:P15"/>
+  <dimension ref="D6:P17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G9" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14:P15"/>
+    <sheetView tabSelected="1" topLeftCell="I8" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16:P17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1055,91 +1096,91 @@
       </c>
     </row>
     <row r="13" spans="4:16" ht="24.75" customHeight="1">
-      <c r="D13" s="12">
+      <c r="D13" s="7">
         <v>45376</v>
       </c>
-      <c r="E13" s="13" t="s">
+      <c r="E13" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="F13" s="13" t="s">
+      <c r="F13" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="G13" s="13" t="s">
+      <c r="G13" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="H13" s="14" t="s">
+      <c r="H13" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="I13" s="13">
+      <c r="I13" s="8">
         <v>0</v>
       </c>
-      <c r="J13" s="13">
+      <c r="J13" s="8">
         <v>1</v>
       </c>
-      <c r="K13" s="13" t="s">
+      <c r="K13" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="L13" s="13">
+      <c r="L13" s="8">
         <v>0.83678699999999995</v>
       </c>
-      <c r="M13" s="13">
+      <c r="M13" s="8">
         <v>0.65342607109999995</v>
       </c>
-      <c r="N13" s="13">
+      <c r="N13" s="8">
         <v>0.56499999999999995</v>
       </c>
-      <c r="O13" s="13">
+      <c r="O13" s="8">
         <v>5848</v>
       </c>
-      <c r="P13" s="18">
+      <c r="P13" s="20">
         <f>O13/3600</f>
         <v>1.6244444444444444</v>
       </c>
     </row>
     <row r="14" spans="4:16" ht="18.75" customHeight="1">
-      <c r="D14" s="23">
+      <c r="D14" s="7">
         <v>45382</v>
       </c>
-      <c r="E14" s="13" t="s">
+      <c r="E14" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="F14" s="13" t="s">
+      <c r="F14" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="G14" s="13" t="s">
+      <c r="G14" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="H14" s="24" t="s">
+      <c r="H14" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="I14" s="13">
+      <c r="I14" s="8">
         <v>0</v>
       </c>
-      <c r="J14" s="13">
+      <c r="J14" s="8">
         <v>1</v>
       </c>
-      <c r="K14" s="25" t="s">
+      <c r="K14" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="L14" s="25">
+      <c r="L14" s="8">
         <v>0.82329399999999997</v>
       </c>
-      <c r="M14" s="25">
+      <c r="M14" s="8">
         <v>0.62413052999999996</v>
       </c>
-      <c r="N14" s="25">
+      <c r="N14" s="8">
         <v>0.48099999999999998</v>
       </c>
-      <c r="O14" s="25">
+      <c r="O14" s="8">
         <v>3577</v>
       </c>
-      <c r="P14" s="25">
+      <c r="P14" s="20">
         <f>O14/3600</f>
         <v>0.99361111111111111</v>
       </c>
     </row>
     <row r="15" spans="4:16" ht="25.5" customHeight="1">
-      <c r="D15" s="23">
+      <c r="D15" s="12">
         <v>45382</v>
       </c>
       <c r="E15" s="13" t="s">
@@ -1151,7 +1192,7 @@
       <c r="G15" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="H15" s="24" t="s">
+      <c r="H15" s="14" t="s">
         <v>34</v>
       </c>
       <c r="I15" s="13">
@@ -1160,24 +1201,108 @@
       <c r="J15" s="13">
         <v>1</v>
       </c>
-      <c r="K15" s="25" t="s">
+      <c r="K15" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="L15" s="25">
+      <c r="L15" s="13">
         <v>0.84043100000000004</v>
       </c>
-      <c r="M15" s="25">
+      <c r="M15" s="13">
         <v>0.66084032589999997</v>
       </c>
-      <c r="N15" s="25">
+      <c r="N15" s="13">
         <v>0.51800000000000002</v>
       </c>
-      <c r="O15" s="25">
+      <c r="O15" s="13">
         <v>8445</v>
       </c>
-      <c r="P15" s="25">
+      <c r="P15" s="18">
         <f>O15/3600</f>
         <v>2.3458333333333332</v>
+      </c>
+    </row>
+    <row r="16" spans="4:16" ht="35.25" customHeight="1">
+      <c r="D16" s="12">
+        <v>45383</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G16" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="H16" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="I16" s="13">
+        <v>0</v>
+      </c>
+      <c r="J16" s="13">
+        <v>1</v>
+      </c>
+      <c r="K16" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="L16" s="24">
+        <v>0.83834399999999998</v>
+      </c>
+      <c r="M16" s="24">
+        <v>0.65594139699999998</v>
+      </c>
+      <c r="N16" s="24">
+        <v>0.53200000000000003</v>
+      </c>
+      <c r="O16" s="24">
+        <v>16425</v>
+      </c>
+      <c r="P16" s="24">
+        <f>O16/3600</f>
+        <v>4.5625</v>
+      </c>
+    </row>
+    <row r="17" spans="4:16" ht="39.75" customHeight="1">
+      <c r="D17" s="25">
+        <v>45383</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="G17" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="H17" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="I17" s="13">
+        <v>0</v>
+      </c>
+      <c r="J17" s="13">
+        <v>1</v>
+      </c>
+      <c r="K17" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="L17" s="24">
+        <v>0.83940999999999999</v>
+      </c>
+      <c r="M17" s="24">
+        <v>0.65810719139999996</v>
+      </c>
+      <c r="N17" s="24">
+        <v>0.56499999999999995</v>
+      </c>
+      <c r="O17" s="24">
+        <v>16603</v>
+      </c>
+      <c r="P17" s="24">
+        <f>O17/3600</f>
+        <v>4.6119444444444442</v>
       </c>
     </row>
   </sheetData>

--- a/planning/submission_log.xlsx
+++ b/planning/submission_log.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27528"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="265" documentId="11_DF5355BF84DCCE63EC1506588731F45B1AF65D9D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{11ED00F9-B1D9-421F-9D71-EAC55501E776}"/>
+  <xr:revisionPtr revIDLastSave="287" documentId="11_DF5355BF84DCCE63EC1506588731F45B1AF65D9D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{25E21E20-8D9A-4B38-9FC7-2E92AFD6EC0B}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="47">
   <si>
     <t>Date</t>
   </si>
@@ -281,6 +281,33 @@
     'reg_lambda': 1,
     "device": "cpu",
     "is_unbalance":False, callbacks=[lgb.log_evaluation(100), lgb.early_stopping(100)]</t>
+  </si>
+  <si>
+    <t>home-credit-2024-v2-lgb-jax</t>
+  </si>
+  <si>
+    <t>Version 1</t>
+  </si>
+  <si>
+    <t>"boosting_type": "gbdt",
+    "objective": "binary",
+    "metric": "auc",
+    "max_depth": 10,
+    "learning_rate": 0.05,
+    "n_estimators": 2000,
+    "colsample_bytree": 0.8,
+    "colsample_bynode": 0.8,
+    "verbose": -1,
+    "random_state": 42,
+    "reg_alpha": 0.1,
+    "reg_lambda": 10,
+    "extra_trees":True,
+    'num_leaves':64,
+    "device": device, 
+    "verbose": -1, callbacks=[lgb.log_evaluation(100), lgb.early_stopping(100)]</t>
+  </si>
+  <si>
+    <t>all features without BALANCE_COLUMNS</t>
   </si>
 </sst>
 </file>
@@ -443,17 +470,17 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normální" xfId="0" builtinId="0"/>
@@ -788,10 +815,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="D6:P17"/>
+  <dimension ref="D6:P18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I8" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16:P17"/>
+    <sheetView tabSelected="1" topLeftCell="J12" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18:P18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -842,10 +869,10 @@
       <c r="N6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="O6" s="21" t="s">
+      <c r="O6" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="P6" s="22"/>
+      <c r="P6" s="25"/>
     </row>
     <row r="7" spans="4:16" ht="28.5" customHeight="1">
       <c r="D7" s="3">
@@ -1234,7 +1261,7 @@
       <c r="G16" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="H16" s="23" t="s">
+      <c r="H16" s="21" t="s">
         <v>39</v>
       </c>
       <c r="I16" s="13">
@@ -1246,25 +1273,25 @@
       <c r="K16" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="L16" s="24">
+      <c r="L16" s="22">
         <v>0.83834399999999998</v>
       </c>
-      <c r="M16" s="24">
+      <c r="M16" s="22">
         <v>0.65594139699999998</v>
       </c>
-      <c r="N16" s="24">
+      <c r="N16" s="22">
         <v>0.53200000000000003</v>
       </c>
-      <c r="O16" s="24">
+      <c r="O16" s="22">
         <v>16425</v>
       </c>
-      <c r="P16" s="24">
+      <c r="P16" s="22">
         <f>O16/3600</f>
         <v>4.5625</v>
       </c>
     </row>
     <row r="17" spans="4:16" ht="39.75" customHeight="1">
-      <c r="D17" s="25">
+      <c r="D17" s="23">
         <v>45383</v>
       </c>
       <c r="E17" s="13" t="s">
@@ -1276,7 +1303,7 @@
       <c r="G17" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="H17" s="23" t="s">
+      <c r="H17" s="21" t="s">
         <v>42</v>
       </c>
       <c r="I17" s="13">
@@ -1288,21 +1315,63 @@
       <c r="K17" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="L17" s="24">
+      <c r="L17" s="22">
         <v>0.83940999999999999</v>
       </c>
-      <c r="M17" s="24">
+      <c r="M17" s="22">
         <v>0.65810719139999996</v>
       </c>
-      <c r="N17" s="24">
+      <c r="N17" s="22">
         <v>0.56499999999999995</v>
       </c>
-      <c r="O17" s="24">
+      <c r="O17" s="22">
         <v>16603</v>
       </c>
-      <c r="P17" s="24">
+      <c r="P17" s="22">
         <f>O17/3600</f>
         <v>4.6119444444444442</v>
+      </c>
+    </row>
+    <row r="18" spans="4:16" ht="18" customHeight="1">
+      <c r="D18" s="23">
+        <v>45383</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="G18" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="H18" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="I18" s="13">
+        <v>0</v>
+      </c>
+      <c r="J18" s="13">
+        <v>1</v>
+      </c>
+      <c r="K18" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="L18" s="22">
+        <v>0.841225</v>
+      </c>
+      <c r="M18" s="22">
+        <v>0.66301652468000005</v>
+      </c>
+      <c r="N18" s="22">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="O18" s="22">
+        <v>9093</v>
+      </c>
+      <c r="P18" s="22">
+        <f>O18/3600</f>
+        <v>2.5258333333333334</v>
       </c>
     </row>
   </sheetData>

--- a/planning/submission_log.xlsx
+++ b/planning/submission_log.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27528"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27601"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="287" documentId="11_DF5355BF84DCCE63EC1506588731F45B1AF65D9D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{25E21E20-8D9A-4B38-9FC7-2E92AFD6EC0B}"/>
+  <xr:revisionPtr revIDLastSave="325" documentId="11_DF5355BF84DCCE63EC1506588731F45B1AF65D9D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{977F52E8-B2F3-4FD3-878C-2A6E3B16FFB7}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="54">
   <si>
     <t>Date</t>
   </si>
@@ -308,6 +308,55 @@
   </si>
   <si>
     <t>all features without BALANCE_COLUMNS</t>
+  </si>
+  <si>
+    <t>[Home]AfterSubmissionsOpen 3/11/2024[LB.567]</t>
+  </si>
+  <si>
+    <t>Home Credit (LGB) More robust</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  "boosting_type": "gbdt",
+    "objective": "binary",
+    "metric": "auc",
+    "max_depth": 10,  
+    "learning_rate": 0.05,
+    "n_estimators": 2000,  
+    "colsample_bytree": 0.8,
+    "colsample_bynode": 0.8,
+    "verbose": -1,
+    "random_state": 42,
+    "reg_alpha": 0.1,
+    "reg_lambda": 10,
+    "extra_trees":True,
+    'num_leaves':64,
+    "device": device, 
+    "verbose": -1,
+}</t>
+  </si>
+  <si>
+    <t>features575</t>
+  </si>
+  <si>
+    <t>Home-credit-2024-v2-1-LGB</t>
+  </si>
+  <si>
+    <t>Version 47</t>
+  </si>
+  <si>
+    <t>"boosting_type": "gbdt",
+    "objective": "binary",
+    "metric": "auc",
+    "max_depth": 5,
+    "learning_rate": 0.03,
+    "n_estimators": 1000,
+    "colsample_bytree": 0.5, 
+    "colsample_bynode": 0.5,
+    "verbose": -1,
+    "random_state": 42,
+    'reg_alpha': 1,
+    'reg_lambda': 1,
+    "device": "cpu",</t>
   </si>
 </sst>
 </file>
@@ -329,7 +378,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -345,6 +394,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -438,7 +499,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -481,6 +542,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normální" xfId="0" builtinId="0"/>
@@ -815,10 +883,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="D6:P18"/>
+  <dimension ref="D6:P21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J12" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18:P18"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1374,6 +1442,106 @@
         <v>2.5258333333333334</v>
       </c>
     </row>
+    <row r="19" spans="4:16">
+      <c r="D19" s="30"/>
+      <c r="E19" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="F19" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="G19" s="30"/>
+      <c r="H19" s="30"/>
+      <c r="I19" s="30">
+        <v>1</v>
+      </c>
+      <c r="J19" s="30"/>
+      <c r="K19" s="30"/>
+      <c r="L19" s="30"/>
+      <c r="M19" s="30"/>
+      <c r="N19" s="30">
+        <v>0.56699999999999995</v>
+      </c>
+      <c r="O19" s="30"/>
+      <c r="P19" s="30"/>
+    </row>
+    <row r="20" spans="4:16" ht="17.25" customHeight="1">
+      <c r="D20" s="29">
+        <v>45385</v>
+      </c>
+      <c r="E20" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="F20" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="G20" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="H20" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="I20" s="26">
+        <v>0</v>
+      </c>
+      <c r="J20" s="26">
+        <v>1</v>
+      </c>
+      <c r="K20" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="L20" s="26">
+        <v>0.84</v>
+      </c>
+      <c r="M20" s="26"/>
+      <c r="N20" s="26">
+        <v>0.57499999999999996</v>
+      </c>
+      <c r="O20" s="26"/>
+      <c r="P20" s="26"/>
+    </row>
+    <row r="21" spans="4:16" ht="15" customHeight="1">
+      <c r="D21" s="23">
+        <v>45386</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="F21" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="G21" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="H21" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="I21" s="13">
+        <v>0</v>
+      </c>
+      <c r="J21" s="13">
+        <v>1</v>
+      </c>
+      <c r="K21" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="L21" s="22">
+        <v>0.83875599999999995</v>
+      </c>
+      <c r="M21" s="22">
+        <v>0.65720895168598703</v>
+      </c>
+      <c r="N21" s="22">
+        <v>0.55700000000000005</v>
+      </c>
+      <c r="O21" s="22">
+        <v>15217</v>
+      </c>
+      <c r="P21" s="22">
+        <f>O21/3600</f>
+        <v>4.2269444444444444</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="O6:P6"/>
